--- a/Datos/Database by set/Set with text box/Xlsx sets/HasCon 2017 (H17).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/HasCon 2017 (H17).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,175 +444,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dragon</t>
+          <t>('Dragon', ['Token Creature — Dragon', 'Flying', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Token Creature — Dragon</t>
+          <t>('Grimlock, Dinobot Leader', ['{1}{R}{G}{W}', 'Legendary Artifact Creature — Autobot', 'Dinosaurs, Vehicles, and other Transformers® creatures you control get +2/+0.', '{2}, Convert a Transformers toy you own to its other mode: Grimlock, Dinobot Leader becomes Grimlock, Ferocious King.', '4/4', 'Grimlock, Ferocious King', 'Legendary Artifact Creature — Dinosaur', 'Trample', '{2}, Convert a Transformers toy you own to its other mode: Grimlock, Ferocious King becomes Grimlock, Dinobot Leader.', '8/8'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Nerf War', ['{3}{U}{R}', 'Sorcery', 'Fire a Nerf® blaster until empty at target library from at least two meters away. For each card knocked off that library, put it into its owner’s graveyard and Nerf War deals ½ damage to that player. (Foam darts only.)'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Grimlock, Dinobot Leader</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{1}{R}{G}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Legendary Artifact Creature — Autobot</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Dinosaurs, Vehicles, and other Transformers® creatures you control get +2/+0.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{2}, Convert a Transformers toy you own to its other mode: Grimlock, Dinobot Leader becomes Grimlock, Ferocious King.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Grimlock, Ferocious King</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Legendary Artifact Creature — Dinosaur</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{2}, Convert a Transformers toy you own to its other mode: Grimlock, Ferocious King becomes Grimlock, Dinobot Leader.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>8/8</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Nerf War</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{3}{U}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Fire a Nerf® blaster until empty at target library from at least two meters away. For each card knocked off that library, put it into its owner’s graveyard and Nerf War deals ½ damage to that player. (Foam darts only.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sword of Dungeons &amp; Dragons</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{3}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Artifact — Equipment</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Equipped creature gets +2/+2 and has protection from Rogues and from Clerics.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Whenever equipped creature deals combat damage to a player, create a 4/4 gold Dragon creature token with flying and roll a d20 (a twenty-sided die). If you roll a 20, repeat this process.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Equip {2}</t>
+          <t>('Sword of Dungeons &amp; Dragons', ['{3}', 'Artifact — Equipment', 'Equipped creature gets +2/+2 and has protection from Rogues and from Clerics.', 'Whenever equipped creature deals combat damage to a player, create a 4/4 gold Dragon creature token with flying and roll a d20 (a twenty-sided die). If you roll a 20, repeat this process.', 'Equip {2}'])</t>
         </is>
       </c>
     </row>
